--- a/auto/new_data/7_上海航運交易所_集裝箱海運量指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_集裝箱海運量指數.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,316 +434,359 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>指數名稱</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>指數</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>指數_time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>综合指数</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>166.83</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>-4.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>中国（上海）至“一路”沿线国家出口集装箱海运量</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>70.0%</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>163.15</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-5.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>俄远东</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>俄远东-出口</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>494.96</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>南亚</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>南亚-出口</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>203.30</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-6.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>东南亚</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>东南亚-出口</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>205.18</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-5.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>西亚</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>西亚-出口</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>148.23</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-5.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>欧洲-出口</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>141.96</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-7.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>大洋洲</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>大洋洲-出口</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>96.35</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-4.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>北非</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>北非-出口</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>244.16</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>36.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>中国（上海）自“一路”沿线国家进口集装箱海运量</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>30.0%</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>175.40</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>俄远东</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>俄远东-進口</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>72.30</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-27.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>南亚</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>南亚-進口</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>202.08</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>东南亚</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>东南亚-進口</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>293.13</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>西亚</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>西亚-進口</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>110.36</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-20.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>欧洲-進口</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>122.00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>大洋洲</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>大洋洲-進口</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>158.25</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>北非</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>北非-進口</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>87.51</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-16.6</t>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_集裝箱海運量指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_集裝箱海運量指數.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>166.83</t>
+          <t>164.61</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>163.15</t>
+          <t>157.81</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>494.96</t>
+          <t>437.75</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>203.30</t>
+          <t>197.19</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>205.18</t>
+          <t>198.77</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>148.23</t>
+          <t>142.86</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>141.96</t>
+          <t>137.20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>96.35</t>
+          <t>100.95</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>244.16</t>
+          <t>201.89</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>175.40</t>
+          <t>180.49</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>72.30</t>
+          <t>99.52</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202.08</t>
+          <t>192.24</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>293.13</t>
+          <t>324.89</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>110.36</t>
+          <t>146.01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>122.00</t>
+          <t>109.27</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>158.25</t>
+          <t>130.98</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>149.64</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_集裝箱海運量指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_集裝箱海運量指數.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>164.61</t>
+          <t>161.27</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>437.75</t>
+          <t>492.37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>197.19</t>
+          <t>194.14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>198.77</t>
+          <t>199.10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>142.86</t>
+          <t>150.60</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>137.20</t>
+          <t>129.11</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>100.95</t>
+          <t>121.57</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>201.89</t>
+          <t>221.40</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>180.49</t>
+          <t>169.32</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>99.52</t>
+          <t>106.58</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.24</t>
+          <t>222.34</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>324.89</t>
+          <t>307.91</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>146.01</t>
+          <t>118.94</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>109.27</t>
+          <t>98.13</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>130.98</t>
+          <t>138.90</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>149.64</t>
+          <t>47.08</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_集裝箱海運量指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_集裝箱海運量指數.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>161.27</t>
+          <t>165.36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>157.81</t>
+          <t>161.49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>492.37</t>
+          <t>414.82</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>194.14</t>
+          <t>235.31</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>199.10</t>
+          <t>211.07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>150.60</t>
+          <t>152.69</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>129.11</t>
+          <t>127.01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>121.57</t>
+          <t>105.72</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>221.40</t>
+          <t>228.04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>169.32</t>
+          <t>174.40</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>106.58</t>
+          <t>95.97</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>222.34</t>
+          <t>183.06</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>307.91</t>
+          <t>305.75</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>118.94</t>
+          <t>130.48</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>98.13</t>
+          <t>107.42</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>138.90</t>
+          <t>173.47</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>47.08</t>
+          <t>57.66</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
